--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91712D-84D6-4E94-A102-E06AE6A45A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1566B1-79C8-436E-9B5B-158D3384C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>https://fontawesome.com/icons/bars?s=solid&amp;f=classic</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>right-from-bracket</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/right-from-bracket?f=classic&amp;s=solid</t>
   </si>
 </sst>
 </file>
@@ -640,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D33"/>
+  <dimension ref="B3:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +660,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -982,6 +991,17 @@
       </c>
       <c r="D33" s="4" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1016,8 +1036,9 @@
     <hyperlink ref="D32" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
     <hyperlink ref="D31" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
     <hyperlink ref="D33" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1566B1-79C8-436E-9B5B-158D3384C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC54865-E110-4F9A-914D-F395BC0E2F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>https://fontawesome.com/icons/right-from-bracket?f=classic&amp;s=solid</t>
+  </si>
+  <si>
+    <t>Flecha Atras</t>
+  </si>
+  <si>
+    <t>arrow-left</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/arrow-left?f=classic&amp;s=solid</t>
   </si>
 </sst>
 </file>
@@ -649,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,6 +1011,17 @@
       </c>
       <c r="D34" s="4" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1037,8 +1057,9 @@
     <hyperlink ref="D31" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
     <hyperlink ref="D33" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
     <hyperlink ref="D34" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC54865-E110-4F9A-914D-F395BC0E2F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB6F31-9BDB-46CD-938D-F39770AF6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t>https://fontawesome.com/icons/arrow-left?f=classic&amp;s=solid</t>
+  </si>
+  <si>
+    <t>Check (True)</t>
+  </si>
+  <si>
+    <t>circle-check</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/circle-check?f=classic&amp;s=regular</t>
+  </si>
+  <si>
+    <t>circle-xmark</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/circle-xmark?f=classic&amp;s=regular</t>
+  </si>
+  <si>
+    <t>Check (False)</t>
   </si>
 </sst>
 </file>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D35"/>
+  <dimension ref="B3:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1040,28 @@
       </c>
       <c r="D35" s="4" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1058,8 +1098,10 @@
     <hyperlink ref="D33" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
     <hyperlink ref="D34" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
     <hyperlink ref="D35" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB6F31-9BDB-46CD-938D-F39770AF6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F94C3-D33F-4705-A5DB-E45D5A3A72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -307,6 +307,117 @@
   </si>
   <si>
     <t>Check (False)</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>app-store-ios</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/app-store-ios?f=brands&amp;s=solid</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/android?f=brands&amp;s=solid</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-playstation"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-xbox"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-windows"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-linux"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-n"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-android"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-app-store-ios"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-brands fa-apple"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-house"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-user-tie"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-file-lines"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-gamepad"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-code"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-upload"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-layer-group"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-dragon"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-volume-high"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-chess"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-heart"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-heart-crack"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-star"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-eye"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-pen"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-trash-can"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-plus"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-bars"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-right-from-bracket"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-arrow-left"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-regular fa-circle-check"&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -350,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -373,12 +484,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,7 +540,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D37"/>
+  <dimension ref="B3:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,18 +841,20 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,138 +862,175 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
@@ -845,263 +1038,354 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{BF457E97-1CE6-4168-93F8-27F9197AA1B1}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{CF7939B4-98FC-4368-BF37-9AE0914BC218}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{64E737F6-412E-4BAF-A759-6862FBFB6163}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{F40A0D2B-5694-4764-9308-8051E920EA78}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{4D28A968-DD65-4DFB-807F-0F2426770356}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{F263FB67-2693-4A0F-A542-53438DE23E73}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{70CDF62D-0C0F-4ABF-A3BE-D01342BA82FD}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{A8CBB3CA-A865-438A-8BBB-7759B64E0550}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{0A467324-5C37-4E54-9736-AE79AFA4CF01}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{49031D52-79E6-44A4-8058-CA6C22A7029F}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
-    <hyperlink ref="D28" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
-    <hyperlink ref="D30" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
-    <hyperlink ref="D29" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
-    <hyperlink ref="D32" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
-    <hyperlink ref="D33" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
-    <hyperlink ref="D34" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
-    <hyperlink ref="D37" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{BF457E97-1CE6-4168-93F8-27F9197AA1B1}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{CF7939B4-98FC-4368-BF37-9AE0914BC218}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{64E737F6-412E-4BAF-A759-6862FBFB6163}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{F40A0D2B-5694-4764-9308-8051E920EA78}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{4D28A968-DD65-4DFB-807F-0F2426770356}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{F263FB67-2693-4A0F-A542-53438DE23E73}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{70CDF62D-0C0F-4ABF-A3BE-D01342BA82FD}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{A8CBB3CA-A865-438A-8BBB-7759B64E0550}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{0A467324-5C37-4E54-9736-AE79AFA4CF01}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{49031D52-79E6-44A4-8058-CA6C22A7029F}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
+    <hyperlink ref="E20" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
+    <hyperlink ref="E28" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
+    <hyperlink ref="E30" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
+    <hyperlink ref="E32" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
+    <hyperlink ref="E34" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
+    <hyperlink ref="E33" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
+    <hyperlink ref="E35" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
+    <hyperlink ref="E36" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
+    <hyperlink ref="E37" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
+    <hyperlink ref="E38" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
+    <hyperlink ref="E39" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
+    <hyperlink ref="E24" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
+    <hyperlink ref="E22" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F94C3-D33F-4705-A5DB-E45D5A3A72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C01A67-592D-4488-93C6-6C6F097D3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -418,6 +418,33 @@
   </si>
   <si>
     <t>&lt;i class="fa-regular fa-circle-check"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>IDIOMAS</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>&lt;span class="fi fi-es fis"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>https://flagicons.lipis.dev/</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>&lt;span class="fi fi-gb fis"&gt;&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -526,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,6 +574,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E39"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1194,7 @@
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1166,7 +1202,7 @@
     </row>
     <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -1180,176 +1216,227 @@
     </row>
     <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>62</v>
+      <c r="B29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>73</v>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B26:E26"/>
   </mergeCells>
   <hyperlinks>
@@ -1370,22 +1457,24 @@
     <hyperlink ref="E20" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
     <hyperlink ref="E23" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
     <hyperlink ref="E25" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
-    <hyperlink ref="E28" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
-    <hyperlink ref="E29" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
-    <hyperlink ref="E30" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
-    <hyperlink ref="E33" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
-    <hyperlink ref="E35" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
-    <hyperlink ref="E36" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
-    <hyperlink ref="E37" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
-    <hyperlink ref="E38" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
-    <hyperlink ref="E39" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
+    <hyperlink ref="E32" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
+    <hyperlink ref="E33" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
+    <hyperlink ref="E36" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
+    <hyperlink ref="E35" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
+    <hyperlink ref="E38" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
+    <hyperlink ref="E37" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
+    <hyperlink ref="E39" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
+    <hyperlink ref="E41" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
+    <hyperlink ref="E42" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
+    <hyperlink ref="E43" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
     <hyperlink ref="E24" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
     <hyperlink ref="E22" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
+    <hyperlink ref="E28" r:id="rId32" xr:uid="{10A34061-E7E9-4B36-85FC-E5911669D302}"/>
+    <hyperlink ref="E29" r:id="rId33" xr:uid="{09F9FB2D-9E3D-4BED-B493-DA8B4EEE9CBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C01A67-592D-4488-93C6-6C6F097D3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96C3BDA-EDD6-4B79-8D1F-C0F02B1E6626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -445,6 +445,42 @@
   </si>
   <si>
     <t>&lt;span class="fi fi-gb fis"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Web Text</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-font"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/font?f=classic&amp;s=solid</t>
+  </si>
+  <si>
+    <t>Web Language</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-comment"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/comment?f=classic&amp;s=solid</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-regular fa-folder-open"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>folder-open</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/folder-open?f=classic&amp;s=regular</t>
   </si>
 </sst>
 </file>
@@ -567,6 +603,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,15 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E43"/>
+  <dimension ref="B3:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,12 +919,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1059,385 +1095,427 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
+      <c r="B17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{BF457E97-1CE6-4168-93F8-27F9197AA1B1}"/>
@@ -1450,31 +1528,34 @@
     <hyperlink ref="E12" r:id="rId8" xr:uid="{A8CBB3CA-A865-438A-8BBB-7759B64E0550}"/>
     <hyperlink ref="E13" r:id="rId9" xr:uid="{0A467324-5C37-4E54-9736-AE79AFA4CF01}"/>
     <hyperlink ref="E14" r:id="rId10" xr:uid="{49031D52-79E6-44A4-8058-CA6C22A7029F}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
-    <hyperlink ref="E20" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
-    <hyperlink ref="E32" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
-    <hyperlink ref="E33" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
-    <hyperlink ref="E34" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
-    <hyperlink ref="E36" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
-    <hyperlink ref="E35" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
-    <hyperlink ref="E38" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
-    <hyperlink ref="E37" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
-    <hyperlink ref="E39" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
-    <hyperlink ref="E41" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
-    <hyperlink ref="E42" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
-    <hyperlink ref="E43" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
-    <hyperlink ref="E24" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
-    <hyperlink ref="E22" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
-    <hyperlink ref="E28" r:id="rId32" xr:uid="{10A34061-E7E9-4B36-85FC-E5911669D302}"/>
-    <hyperlink ref="E29" r:id="rId33" xr:uid="{09F9FB2D-9E3D-4BED-B493-DA8B4EEE9CBD}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
+    <hyperlink ref="E22" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
+    <hyperlink ref="E26" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
+    <hyperlink ref="E28" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
+    <hyperlink ref="E36" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
+    <hyperlink ref="E37" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
+    <hyperlink ref="E39" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
+    <hyperlink ref="E38" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
+    <hyperlink ref="E41" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
+    <hyperlink ref="E42" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
+    <hyperlink ref="E43" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
+    <hyperlink ref="E44" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
+    <hyperlink ref="E45" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
+    <hyperlink ref="E46" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
+    <hyperlink ref="E27" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
+    <hyperlink ref="E25" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
+    <hyperlink ref="E31" r:id="rId32" xr:uid="{10A34061-E7E9-4B36-85FC-E5911669D302}"/>
+    <hyperlink ref="E32" r:id="rId33" xr:uid="{09F9FB2D-9E3D-4BED-B493-DA8B4EEE9CBD}"/>
+    <hyperlink ref="E15" r:id="rId34" xr:uid="{D2AFDC63-F85D-44D1-A1E8-2454249F4991}"/>
+    <hyperlink ref="E16" r:id="rId35" xr:uid="{9ED20DAB-C538-4CDB-806D-50485472A1D7}"/>
+    <hyperlink ref="E17" r:id="rId36" xr:uid="{58E674D1-13CE-4717-8113-C04979A7FBA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Moqup/Iconos.xlsx
+++ b/Moqup/Iconos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GamerNest\Moqup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96C3BDA-EDD6-4B79-8D1F-C0F02B1E6626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46616217-8B69-4795-A68E-F797F9DB7B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="192">
   <si>
     <t>MENÚ LATERAL</t>
   </si>
@@ -481,13 +481,133 @@
   </si>
   <si>
     <t>https://fontawesome.com/icons/folder-open?f=classic&amp;s=regular</t>
+  </si>
+  <si>
+    <t>UNICODE</t>
+  </si>
+  <si>
+    <t>&amp;#xf058</t>
+  </si>
+  <si>
+    <t>&amp;#xf015</t>
+  </si>
+  <si>
+    <t>&amp;#xf007</t>
+  </si>
+  <si>
+    <t>&amp;#xf508</t>
+  </si>
+  <si>
+    <t>&amp;#xf15c</t>
+  </si>
+  <si>
+    <t>&amp;#xf11b</t>
+  </si>
+  <si>
+    <t>&amp;#xf121</t>
+  </si>
+  <si>
+    <t>&amp;#xf093</t>
+  </si>
+  <si>
+    <t>&amp;#xf5fd</t>
+  </si>
+  <si>
+    <t>&amp;#xf6d5</t>
+  </si>
+  <si>
+    <t>&amp;#xf028</t>
+  </si>
+  <si>
+    <t>&amp;#xf439</t>
+  </si>
+  <si>
+    <t>&amp;#xf031</t>
+  </si>
+  <si>
+    <t>&amp;#xf07c</t>
+  </si>
+  <si>
+    <t>&amp;#xf075</t>
+  </si>
+  <si>
+    <t>&amp;#xf3df</t>
+  </si>
+  <si>
+    <t>&amp;#xf412</t>
+  </si>
+  <si>
+    <t>&amp;#x4e</t>
+  </si>
+  <si>
+    <t>&amp;#xf17a</t>
+  </si>
+  <si>
+    <t>&amp;#xf17b</t>
+  </si>
+  <si>
+    <t>&amp;#xf17c</t>
+  </si>
+  <si>
+    <t>&amp;#xf370</t>
+  </si>
+  <si>
+    <t>&amp;#xf179</t>
+  </si>
+  <si>
+    <t>&amp;#xf004</t>
+  </si>
+  <si>
+    <t>&amp;#xf7a9</t>
+  </si>
+  <si>
+    <t>&amp;#xf005</t>
+  </si>
+  <si>
+    <t>&amp;#xf06e</t>
+  </si>
+  <si>
+    <t>&amp;#xf304</t>
+  </si>
+  <si>
+    <t>&amp;#xf2ed</t>
+  </si>
+  <si>
+    <t>&amp;#x2b</t>
+  </si>
+  <si>
+    <t>&amp;#xf0c9</t>
+  </si>
+  <si>
+    <t>&amp;#xf2f5</t>
+  </si>
+  <si>
+    <t>&amp;#xf060</t>
+  </si>
+  <si>
+    <t>&amp;#xf057</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>magnifying-glass</t>
+  </si>
+  <si>
+    <t>&amp;#xf002</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-magnifying-glass"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/icons/magnifying-glass?f=classic&amp;s=solid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +619,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -902,31 +1028,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E46"/>
+  <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -934,13 +1062,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -948,13 +1079,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -962,13 +1096,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -976,13 +1113,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -990,13 +1130,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1004,13 +1147,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1018,13 +1164,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1032,13 +1181,16 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1046,13 +1198,16 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1060,13 +1215,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1074,13 +1232,16 @@
         <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1088,13 +1249,16 @@
         <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>140</v>
       </c>
@@ -1102,13 +1266,16 @@
         <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>148</v>
       </c>
@@ -1116,13 +1283,16 @@
         <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>144</v>
       </c>
@@ -1130,21 +1300,25 @@
         <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1152,13 +1326,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1166,13 +1343,16 @@
         <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1180,13 +1360,16 @@
         <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1194,13 +1377,16 @@
         <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1208,13 +1394,16 @@
         <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
@@ -1222,13 +1411,16 @@
         <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1236,13 +1428,16 @@
         <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
@@ -1250,13 +1445,16 @@
         <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
@@ -1264,21 +1462,25 @@
         <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
@@ -1286,49 +1488,55 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1336,13 +1544,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
@@ -1350,13 +1561,16 @@
         <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
@@ -1364,13 +1578,16 @@
         <v>63</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
@@ -1378,13 +1595,16 @@
         <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1392,13 +1612,16 @@
         <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
@@ -1406,13 +1629,16 @@
         <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -1420,13 +1646,16 @@
         <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>70</v>
       </c>
@@ -1434,13 +1663,16 @@
         <v>78</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
@@ -1448,13 +1680,16 @@
         <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
@@ -1462,13 +1697,16 @@
         <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
@@ -1476,13 +1714,16 @@
         <v>86</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>88</v>
       </c>
@@ -1490,13 +1731,16 @@
         <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
@@ -1504,58 +1748,80 @@
         <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{BF457E97-1CE6-4168-93F8-27F9197AA1B1}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{CF7939B4-98FC-4368-BF37-9AE0914BC218}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{64E737F6-412E-4BAF-A759-6862FBFB6163}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{F40A0D2B-5694-4764-9308-8051E920EA78}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{4D28A968-DD65-4DFB-807F-0F2426770356}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{F263FB67-2693-4A0F-A542-53438DE23E73}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{70CDF62D-0C0F-4ABF-A3BE-D01342BA82FD}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{A8CBB3CA-A865-438A-8BBB-7759B64E0550}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{0A467324-5C37-4E54-9736-AE79AFA4CF01}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{49031D52-79E6-44A4-8058-CA6C22A7029F}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
-    <hyperlink ref="E24" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
-    <hyperlink ref="E26" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
-    <hyperlink ref="E28" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
-    <hyperlink ref="E35" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
-    <hyperlink ref="E36" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
-    <hyperlink ref="E37" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
-    <hyperlink ref="E39" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
-    <hyperlink ref="E38" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
-    <hyperlink ref="E41" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
-    <hyperlink ref="E40" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
-    <hyperlink ref="E42" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
-    <hyperlink ref="E43" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
-    <hyperlink ref="E44" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
-    <hyperlink ref="E45" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
-    <hyperlink ref="E46" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
-    <hyperlink ref="E27" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
-    <hyperlink ref="E25" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
-    <hyperlink ref="E31" r:id="rId32" xr:uid="{10A34061-E7E9-4B36-85FC-E5911669D302}"/>
-    <hyperlink ref="E32" r:id="rId33" xr:uid="{09F9FB2D-9E3D-4BED-B493-DA8B4EEE9CBD}"/>
-    <hyperlink ref="E15" r:id="rId34" xr:uid="{D2AFDC63-F85D-44D1-A1E8-2454249F4991}"/>
-    <hyperlink ref="E16" r:id="rId35" xr:uid="{9ED20DAB-C538-4CDB-806D-50485472A1D7}"/>
-    <hyperlink ref="E17" r:id="rId36" xr:uid="{58E674D1-13CE-4717-8113-C04979A7FBA4}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{BF457E97-1CE6-4168-93F8-27F9197AA1B1}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{CF7939B4-98FC-4368-BF37-9AE0914BC218}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{64E737F6-412E-4BAF-A759-6862FBFB6163}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{F40A0D2B-5694-4764-9308-8051E920EA78}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{4D28A968-DD65-4DFB-807F-0F2426770356}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{F263FB67-2693-4A0F-A542-53438DE23E73}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{70CDF62D-0C0F-4ABF-A3BE-D01342BA82FD}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{A8CBB3CA-A865-438A-8BBB-7759B64E0550}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{0A467324-5C37-4E54-9736-AE79AFA4CF01}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{49031D52-79E6-44A4-8058-CA6C22A7029F}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{2765BA12-E32F-471B-8256-8CA5FA91BF68}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{1603E5CC-AAA9-4A4E-9734-32363D700774}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{F78B15D0-FA8B-4F43-9D9B-C3D9A10EF767}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{F911170C-210F-40A4-B086-18F2C8681E10}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{9B325BF2-0549-4AD5-92F4-89D097E40D87}"/>
+    <hyperlink ref="F26" r:id="rId16" xr:uid="{E5EE382C-37CB-4137-99BC-F76DB6BDBE99}"/>
+    <hyperlink ref="F28" r:id="rId17" xr:uid="{047D70AE-50CF-4FC7-80CA-D3CDB61F7DD2}"/>
+    <hyperlink ref="F35" r:id="rId18" xr:uid="{EDFA2D6C-B829-47A8-9FBF-A213C8390A28}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{380EE2C0-597A-42DF-AF85-CD1BA75A7EA2}"/>
+    <hyperlink ref="F37" r:id="rId20" xr:uid="{C8B15AE7-D846-4F6A-8B28-482DB8A2E43A}"/>
+    <hyperlink ref="F39" r:id="rId21" xr:uid="{137DF08D-B01A-4F69-A488-1E19C023F2B7}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{4D22581F-3B82-40F5-B57B-1B3F72A83FB1}"/>
+    <hyperlink ref="F41" r:id="rId23" xr:uid="{8845E029-3FBD-4714-B37E-75431B4A86C3}"/>
+    <hyperlink ref="F40" r:id="rId24" xr:uid="{8F0CAF8B-9F27-46AA-82DD-7AA7797A3B43}"/>
+    <hyperlink ref="F42" r:id="rId25" xr:uid="{2C7BCA22-ADF3-43DB-9021-C8789A457610}"/>
+    <hyperlink ref="F43" r:id="rId26" xr:uid="{1F1A467D-A3A5-4146-8C70-773F123F16DF}"/>
+    <hyperlink ref="F44" r:id="rId27" xr:uid="{67B35C53-7064-438B-9018-A31A14DCB076}"/>
+    <hyperlink ref="F45" r:id="rId28" xr:uid="{9CD6735D-6FB2-46A9-B32A-2B902EC4477C}"/>
+    <hyperlink ref="F46" r:id="rId29" xr:uid="{D4DF8685-35A8-43AA-B52E-632E03437543}"/>
+    <hyperlink ref="F27" r:id="rId30" xr:uid="{8525170F-E12B-4D17-8AD3-171DF3ED9D62}"/>
+    <hyperlink ref="F25" r:id="rId31" xr:uid="{BBF99225-B7C5-4012-A576-5EDF4D83C604}"/>
+    <hyperlink ref="F31" r:id="rId32" xr:uid="{10A34061-E7E9-4B36-85FC-E5911669D302}"/>
+    <hyperlink ref="F32" r:id="rId33" xr:uid="{09F9FB2D-9E3D-4BED-B493-DA8B4EEE9CBD}"/>
+    <hyperlink ref="F15" r:id="rId34" xr:uid="{D2AFDC63-F85D-44D1-A1E8-2454249F4991}"/>
+    <hyperlink ref="F16" r:id="rId35" xr:uid="{9ED20DAB-C538-4CDB-806D-50485472A1D7}"/>
+    <hyperlink ref="F17" r:id="rId36" xr:uid="{58E674D1-13CE-4717-8113-C04979A7FBA4}"/>
+    <hyperlink ref="F47" r:id="rId37" xr:uid="{1222DD9B-6E16-48D6-B1E8-CBB4B7F3166A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId38"/>
 </worksheet>
 </file>